--- a/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB28CAE-6804-48FB-AD13-3EEEC686ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14B7B4-DC7C-4DD4-887C-7DED305D38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTalent|天赋表" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14B7B4-DC7C-4DD4-887C-7DED305D38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F3D53-F996-488F-9026-5CD048DFBC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTalent|天赋表" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +267,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,7 +582,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,7 +707,7 @@
       <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -718,7 +721,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="H5" t="s">
@@ -727,7 +730,7 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -741,7 +744,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="H6" t="s">
@@ -750,7 +753,7 @@
       <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -764,7 +767,7 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
@@ -773,7 +776,7 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -787,7 +790,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>2</v>
       </c>
       <c r="G8">
@@ -799,7 +802,7 @@
       <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -813,7 +816,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G9">
@@ -825,7 +828,7 @@
       <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -839,7 +842,7 @@
       <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>5</v>
       </c>
       <c r="G10">
@@ -851,7 +854,7 @@
       <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -865,7 +868,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>6</v>
       </c>
       <c r="G11">
@@ -877,7 +880,7 @@
       <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -891,7 +894,7 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>8</v>
       </c>
       <c r="G12">
@@ -903,7 +906,7 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -917,7 +920,7 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>8</v>
       </c>
       <c r="G13">
@@ -929,7 +932,7 @@
       <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -943,7 +946,7 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>9</v>
       </c>
       <c r="G14">
@@ -955,7 +958,7 @@
       <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -969,7 +972,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>10</v>
       </c>
       <c r="G15">
@@ -981,7 +984,7 @@
       <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1007,7 +1010,7 @@
       <c r="I16" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1033,7 +1036,7 @@
       <c r="I17" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F3D53-F996-488F-9026-5CD048DFBC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF598B-9B4A-4F14-AC15-6E738D14EC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26070" yWindow="1455" windowWidth="14835" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTalent|天赋表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>11|12</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[1;2]</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
+  </si>
+  <si>
+    <t>1:{ID_OR_NULL:Item}</t>
+  </si>
+  <si>
+    <t>ID_OR_NULL:RoleTalent</t>
+  </si>
+  <si>
+    <t>1:{ID:Item}</t>
   </si>
 </sst>
 </file>
@@ -141,7 +159,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -149,32 +166,28 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -247,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +289,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,8 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -692,36 +716,37 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>25</v>
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="H5" t="s">
@@ -736,7 +761,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -759,22 +784,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -782,25 +807,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>25</v>
@@ -808,7 +830,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -816,11 +838,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
+      <c r="F9" s="7">
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -834,51 +856,51 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>30</v>
@@ -886,7 +908,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -895,10 +917,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -912,25 +934,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="F13" s="7">
         <v>8</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>30</v>
@@ -938,33 +960,33 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -973,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
@@ -990,25 +1012,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>32</v>
@@ -1016,27 +1038,53 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>23</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF598B-9B4A-4F14-AC15-6E738D14EC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF694CFE-3E76-4CA2-BE49-5C0274D1ABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="1455" windowWidth="14835" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTalent|天赋表" sheetId="1" r:id="rId1"/>
@@ -133,20 +133,22 @@
     <t>IN:[0;1]</t>
   </si>
   <si>
-    <t>1:{ID_OR_NULL:Item}</t>
-  </si>
-  <si>
-    <t>ID_OR_NULL:RoleTalent</t>
-  </si>
-  <si>
     <t>1:{ID:Item}</t>
+  </si>
+  <si>
+    <t>1:{ID:Item$Null}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:RoleTalent$Null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +185,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -266,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +305,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,7 +622,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -725,18 +741,18 @@
       <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>37</v>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>38</v>
+      <c r="F4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">

--- a/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/015_天赋表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF694CFE-3E76-4CA2-BE49-5C0274D1ABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620B0F0F-D1A2-4CA3-9583-9B332EE93CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,12 +136,10 @@
     <t>1:{ID:Item}</t>
   </si>
   <si>
-    <t>1:{ID:Item$Null}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID:RoleTalent$Null</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>1:{ID:Item|Null}</t>
+  </si>
+  <si>
+    <t>ID:RoleTalent|Null</t>
   </si>
 </sst>
 </file>
@@ -622,7 +620,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
